--- a/scenario1_rozetka.xlsx
+++ b/scenario1_rozetka.xlsx
@@ -24,321 +24,575 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="175">
-  <si>
-    <t>Traceability matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreConditions: </t>
-  </si>
-  <si>
-    <t>Tes Case Description:</t>
-  </si>
-  <si>
-    <t>PostConditions:</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="142">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Test Result (passed/failed/blocked)</t>
-  </si>
-  <si>
-    <t>Create new member and check the only one minister is rendered in the aside part Ministery pages</t>
-  </si>
-  <si>
-    <t>Verify Bewindspersonen componet displays both existing members of cabinet - minister and secretary</t>
-  </si>
-  <si>
-    <t>Check the component is rendered with his/her name, role, photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the component is rendered with his/her name and role </t>
-  </si>
-  <si>
-    <t>Check the link in the component with his/her name, role, photo opens Member's page</t>
-  </si>
-  <si>
-    <t>Verify the Bewindspersonen componet displays 2 ministers of cabinet instead of 3 existing  members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the Ministery to the existing Member and check the component shown on the conforming Ministery page </t>
-  </si>
-  <si>
-    <t>Open http://ro-t-cms1.rijksoverheid.nl/ as administrator and navigate to verzamelingen-bewindspersone</t>
-  </si>
-  <si>
-    <t>The bewindspersone folder is opened in the cms</t>
-  </si>
-  <si>
-    <t>Index file is created</t>
-  </si>
-  <si>
-    <t>Test Data 1</t>
-  </si>
-  <si>
-    <t>Name New member of cabinet folder:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name Member of cabinet file: </t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functie: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gekoppelde organisatieonderdelen: </t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Current date</t>
-  </si>
-  <si>
-    <t>Eindverantwoordelijke:</t>
-  </si>
-  <si>
-    <t>Maker:</t>
-  </si>
-  <si>
-    <t>Rechtenhouder:</t>
-  </si>
-  <si>
-    <t>Photo:</t>
-  </si>
-  <si>
-    <t>Verify the Bewindspersonen component is present aside on the page with new created member and his info: 
-- member's name
-- member's role
-- member's photo</t>
-  </si>
-  <si>
-    <t>- The component is shown on the page
-- Member's name is shown
-- Member's role is shown
-- Member's photo is shown</t>
-  </si>
-  <si>
-    <t>Test Data 2</t>
-  </si>
-  <si>
     <t>1test.jpg (in attachment)</t>
   </si>
   <si>
     <t>2test.jpg (in attachment)</t>
   </si>
   <si>
-    <t>The  Ministerie van Binnenlandse Zaken en Koninkrijksrelaties page is displayed</t>
-  </si>
-  <si>
-    <t>Test Data 3</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Minister van Sociale Zaken en Werkgelegenheid</t>
-  </si>
-  <si>
     <t>3test.jpg (in attachment)</t>
   </si>
   <si>
-    <t>Test Data 4</t>
-  </si>
-  <si>
     <t>4test.jpg (in attachment)</t>
   </si>
   <si>
-    <t>Ministerie van Onderwijs</t>
-  </si>
-  <si>
-    <t>Test Data 5</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>New TestMinister5</t>
-  </si>
-  <si>
-    <t>Staatssecretaris van Ministerie van Onderwijs</t>
-  </si>
-  <si>
-    <t>There is only one member shown in the Bewindspersonen component when the Ministry has only one minister</t>
-  </si>
-  <si>
-    <t>Add new mamber of cabinet folder with  name - Test5</t>
-  </si>
-  <si>
-    <t>Test5 folder is created</t>
-  </si>
-  <si>
-    <t>Add new mamber of cabinet file using Test data 5</t>
-  </si>
-  <si>
-    <t>Open http://ro-t-site1.rijksoverheid.nl/ministeries/bzk/</t>
-  </si>
-  <si>
-    <t>Verify the Bewindspersonen component is present aside on the page with only one new created member and his info: 
-- member's name
-- member's role
-- member's photo</t>
-  </si>
-  <si>
-    <t>- The component is shown on the page with only one member
-- Member's name is shown
-- Member's role is shown
-- Member's photo is shown</t>
-  </si>
-  <si>
-    <t>1)  Bewindspersonen component installed</t>
-  </si>
-  <si>
-    <t>TC#3.1 -ROP-113- Verify Bewindspersonen componet displays both existing members of cabinet - minister and secretary</t>
-  </si>
-  <si>
-    <t>TC#2.1 -ROP-113- Create new member and check the only one minister is rendered in the aside part Ministery pages</t>
-  </si>
-  <si>
-    <t>Add new mambers of cabinet folders with  names - Test3 and Test4</t>
-  </si>
-  <si>
-    <t>Test3 and Test4 folders are created</t>
-  </si>
-  <si>
-    <t>Add new mambers of cabinet files using Test data 3 and 4</t>
-  </si>
-  <si>
-    <t>Index files is created in both folders</t>
-  </si>
-  <si>
-    <t>Verify the Bewindspersonen component is present aside on the page with both new created members and their info: 
-- member's names
-- member's roles
-- member's photos</t>
-  </si>
-  <si>
-    <t>- The component is shown on the page with both members
-- Member's names are shown
-- Member's roles are shown
-- Member's photos are shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Test3 and Twst4 folders </t>
-  </si>
-  <si>
-    <t>Verify the Bewindspersonen componet displays both ministers of the cabinet</t>
-  </si>
-  <si>
-    <t>TC#3.2 -ROP-113- Verify the Bewindspersonen componet displays both ministers of the cabinet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are two members with different roles shown in the Bewindspersonen component </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are two ministers shown in the Bewindspersonen component </t>
-  </si>
-  <si>
-    <t>Test Data 6</t>
-  </si>
-  <si>
-    <t>New TestMinister6</t>
-  </si>
-  <si>
-    <t>6test.jpg (in attachment)</t>
-  </si>
-  <si>
     <t>5test.jpg (in attachment)</t>
   </si>
   <si>
-    <t>Add new mambers of cabinet folders with  names - Test3 and Test6</t>
-  </si>
-  <si>
-    <t>Test3 and Test6 folders are created</t>
-  </si>
-  <si>
-    <t>Add new mambers of cabinet files using Test data 3 and 6</t>
-  </si>
-  <si>
-    <t>TC#3.3 -ROP-113- Verify the Bewindspersonen componet displays 2 ministers of cabinet instead of 3 existing  members</t>
-  </si>
-  <si>
-    <t>There are two ministers shown in the Bewindspersonen component instead of 3 existing  members in one Ministery</t>
-  </si>
-  <si>
-    <t>Add new mambers of cabinet folders with  names - Test3, Test4, Test6</t>
-  </si>
-  <si>
-    <t>Test3, Test4, Test6 folders are created</t>
-  </si>
-  <si>
-    <t>Add new mambers of cabinet files using Test data 3, 4 and 6</t>
-  </si>
-  <si>
-    <t>Index files is created in three folders</t>
-  </si>
-  <si>
-    <t>Verify the Bewindspersonen component is present aside on the page with only two new created members and their info: 
-- member's names
-- member's roles
-- member's photos</t>
-  </si>
-  <si>
-    <t>- The component is shown on the page with only two members
-- Member's names are shown
-- Member's roles are shown
-- Member's photos are shown</t>
-  </si>
-  <si>
-    <t>TC#4.3 -ROP-113- Check the link in the component with his/her name, role, photo opens Member's page</t>
-  </si>
-  <si>
-    <t>Click to the Member's name</t>
-  </si>
-  <si>
-    <t>Return to the previous page and click to the Member's photo</t>
-  </si>
-  <si>
-    <t>Member's page is opened</t>
-  </si>
-  <si>
-    <t>TC#5.1-ROP-113- Check the component is not rendered on the page without assigned Members</t>
-  </si>
-  <si>
-    <t>Bewindspersonen component linked to Member's page</t>
-  </si>
-  <si>
-    <t>Delete Test folders</t>
-  </si>
-  <si>
-    <t>Open http://ro-t-site1.rijksoverheid.nl/ministeries/ez/</t>
-  </si>
-  <si>
-    <t>Repeat steps to the Eng site</t>
-  </si>
-  <si>
-    <t>The component is shown on the page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the Bewindspersonen component is not present aside on the page  </t>
-  </si>
-  <si>
-    <t>- The component doesn't shown on the page</t>
+    <t>Требования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заголовки тест кейсов       </t>
+  </si>
+  <si>
+    <t>1. Создание новых пользователей</t>
+  </si>
+  <si>
+    <t>2. Регистрация новых пользователей через социальные сети</t>
+  </si>
+  <si>
+    <t>1-1.1</t>
+  </si>
+  <si>
+    <t>1-1.2</t>
+  </si>
+  <si>
+    <t>1-1.3</t>
+  </si>
+  <si>
+    <t>1-1.4</t>
+  </si>
+  <si>
+    <t>1-1.5</t>
+  </si>
+  <si>
+    <t>1-2.1</t>
+  </si>
+  <si>
+    <t>1-3.1</t>
+  </si>
+  <si>
+    <t>1-3.2</t>
+  </si>
+  <si>
+    <t>При заполнении обезательных полей и нажатии на кнопку "Зарегистрироваться"  я вижу созданого пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Открыть браузер </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыть страницу https://my.rozetka.com.ua/signup/ </t>
+  </si>
+  <si>
+    <t>Открылась страница регистрации</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Имя в текстовом поле "Ваше Имя":</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Александр ввелось в текстовое поле</t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Ваше имя" - ввести Александр</t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести overlord124@gmail.com</t>
+  </si>
+  <si>
+    <t>overlord124@gmail.com</t>
+  </si>
+  <si>
+    <t>overlord124@gmail.com ввелось в текстовое поле</t>
+  </si>
+  <si>
+    <t>Имя в текстовом поле "Эл. почта или телефон"</t>
+  </si>
+  <si>
+    <t>Заполнить элемент для вввода пароля "Придумайте пароль" - ввести Test123456</t>
+  </si>
+  <si>
+    <t>Test123456 было успешно введено в элемент для ввода пароля "Придумайте пароль" ,  введеные данные отображаються  в виде символов черного круга</t>
+  </si>
+  <si>
+    <t>Кликуть на кнопку "Зарегестрироваться"</t>
+  </si>
+  <si>
+    <t>Открылась страница "Личные данные"
+Пользователь успешно создан</t>
+  </si>
+  <si>
+    <t>Пароль в элементе для ввода пароля</t>
+  </si>
+  <si>
+    <t>Test123456</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>21.02.19</t>
+  </si>
+  <si>
+    <t>Фото:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функция: </t>
+  </si>
+  <si>
+    <t>Александр успешно зарегистрировался в систему</t>
+  </si>
+  <si>
+    <t>Тестовые данные</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Тестовый результат (passed/failed/blocked)</t>
+  </si>
+  <si>
+    <t>0972792547</t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести 0972792547</t>
+  </si>
+  <si>
+    <t>0972792547 успешно ввелось в тектовое плоле</t>
+  </si>
+  <si>
+    <t>Создание нового пользователя, регистрация через телефон</t>
+  </si>
+  <si>
+    <t>Создание нового пользователя, регистрация через email</t>
+  </si>
+  <si>
+    <t>При заполнении полей "Ваше Имя" и  "Эл.почта или телефон", выводиться предупреждающее окно "Необходимо указать пароль"</t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести testing1@gmail.com</t>
+  </si>
+  <si>
+    <t>testing1@gmail.com   успешно ввелось в тектовое плоле</t>
+  </si>
+  <si>
+    <t>Вывелось предупреждающее окно "Необходимо указать пароль" 
+Валидация прошла успешно</t>
+  </si>
+  <si>
+    <t>Создания нового пользователя с уже сущесвующим email</t>
+  </si>
+  <si>
+    <t>Создания нового пользователя без заполнения элемента для ввода пароля</t>
+  </si>
+  <si>
+    <t>testing1@gmail.com</t>
+  </si>
+  <si>
+    <t>Вывелось предупреждающее окно "Необходимо указать пароль"</t>
+  </si>
+  <si>
+    <t>Шаги воспроизведения</t>
+  </si>
+  <si>
+    <t>Открылось предупреждающее окно "Пользователь с логином overlord124@gmail.com уже зарегистрирован. Забыли пароль?"
+Валидация прошла успешно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывелось предупреждающее окно "Пользователь с логином overlord124@gmail.com уже зарегистрирован. Забыли пароль?"
+</t>
+  </si>
+  <si>
+    <t>Создания нового пользователя с невалидным паролем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При попытке создания пользователя с уже существующим email выводиться предупреждающее окно </t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Ваше имя" - ввести Иван</t>
+  </si>
+  <si>
+    <t>Иван ввелось в текстовое поле</t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести testingvano@gmail.com</t>
+  </si>
+  <si>
+    <t>testingvano@gmail.com ввелось в текстовое поле</t>
+  </si>
+  <si>
+    <t>Заполнить элемент для вввода пароля "Придумайте пароль" - ввести 12345</t>
+  </si>
+  <si>
+    <t>12345 было успешно введено в элемент для ввода пароля "Придумайте пароль" ,  введеные данные отображаються  в виде символов черного круга</t>
+  </si>
+  <si>
+    <t>Открылось предупреждающее окно "Пароль должен быть не менее 6 символов, содержать цифры и заглавные буквы"
+Валидация прошла успешно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При попытке создания пользователя с невалидным паролем выводиться предупреждающее окно </t>
+  </si>
+  <si>
+    <t>1-2.2</t>
+  </si>
+  <si>
+    <t>Регистрация пользователя через Facebook</t>
+  </si>
+  <si>
+    <t>Регистрация пользователя через Google</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>testingvano@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывелось предупреждающее окно "Пароль должен быть не менее 6 символов, содержать цифры и заглавные буквы"
+</t>
+  </si>
+  <si>
+    <t>Кликнуть на кнопку "Facebook"</t>
+  </si>
+  <si>
+    <t>Открылось новое всплывающее  окно  Facebook</t>
+  </si>
+  <si>
+    <t>Заполнить тектовое поле "Електронный адрес или номер телефона": testingalex@gmail.com</t>
+  </si>
+  <si>
+    <t>testingalex@gmail.com успешно ввелось в текстовое поле "Електронный адрес или номер телефона"</t>
+  </si>
+  <si>
+    <t>Заполнить элемент для вввода пароля "Пароль" - ввести Testing123456</t>
+  </si>
+  <si>
+    <t>Testing123456 было успешно введено в элемент для ввода пароля "Придумайте пароль" ,  введеные данные отображаються  в виде символов черного круга</t>
+  </si>
+  <si>
+    <t>Кликнуть на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>Открылась страница с личными данными 
+Регистрация пользователя через  Facebook прошла успешно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При заполнении обезательных полей и нажатии на кнопку "Войти"  я вижу  созданого пользователя </t>
+  </si>
+  <si>
+    <t>Test Data 1-1</t>
+  </si>
+  <si>
+    <t>Test Data 1-2</t>
+  </si>
+  <si>
+    <t>Test Data 1-3</t>
+  </si>
+  <si>
+    <t>Test Data 1-4</t>
+  </si>
+  <si>
+    <t>Test Data 1-5</t>
+  </si>
+  <si>
+    <t>Test Data 2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> testingalex@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing123456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь успешно зарегестрировался через "Facebook"
+</t>
+  </si>
+  <si>
+    <t>Тестовый результат  (passed/failed/blocked)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1)  Открыть браузер 
+2) Создать нового пользователя "Facebook" c следующими данными:
+email: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testingalex@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Пароль: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Testing123456</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1)  Открыть браузер 
+2) Создать нового пользователя "Google" c следующими данными:
+email:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> testingalex@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Пароль: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Testing123456</t>
+    </r>
+  </si>
+  <si>
+    <t>TC#1.1 -R-1- Создание нового пользователя, регистрация через email</t>
+  </si>
+  <si>
+    <t>TC#1.2 -R-1- Создание нового пользователя, регистрация через телефон</t>
+  </si>
+  <si>
+    <t>TC#1.3 -R-1- Создания нового пользователя без заполнения элемента для ввода пароля</t>
+  </si>
+  <si>
+    <t>TC#1.4 -R-1- Создания нового пользователя с уже сущесвующим email</t>
+  </si>
+  <si>
+    <t>TC#1.5 -R-1- Создания нового пользователя с невалидным паролем</t>
+  </si>
+  <si>
+    <t>TC#2.1 -R-1- Регистрация пользователя через Facebook</t>
+  </si>
+  <si>
+    <t>TC#2.2 -R-1- Регистрация пользователя через Google</t>
+  </si>
+  <si>
+    <t>Кликнуть на кнопку "Google"</t>
+  </si>
+  <si>
+    <t>Открылось новое всплывающее  окно  Google</t>
+  </si>
+  <si>
+    <t>Кликнуть на кнопку "Дальше"</t>
+  </si>
+  <si>
+    <t>открылось окно с элементом для ввода пароля "Введите пароль"</t>
+  </si>
+  <si>
+    <t>Заполнить элемент для ввода пароля- ввести Testing123456</t>
+  </si>
+  <si>
+    <t>Открылась страница с личными данными 
+Регистрация пользователя через  Google прошла успешно</t>
+  </si>
+  <si>
+    <t>Test Data 2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь успешно зарегестрировался через "Google"
+</t>
+  </si>
+  <si>
+    <t>3. Вход зарегистрированым пользователем</t>
+  </si>
+  <si>
+    <t>Вход зарегестрированого пользователя через  email</t>
+  </si>
+  <si>
+    <t>Вход зарегестрированого пользователя через  номер телефона</t>
+  </si>
+  <si>
+    <t>TC#3.1 -R-1- Вход зарегестрированого пользователя через email</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1)  Открыть браузер 
+2) Создать нового пользователя  c следующими данными:
+Имя: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Константин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+email: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testingalex@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Пароль: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Testing123456</t>
+    </r>
+  </si>
+  <si>
+    <t>Кликнуть на элемент меню "Войдите в личный кабинет"</t>
+  </si>
+  <si>
+    <t>Открылось вспывающее окно "Вход в Интернет-Магазин"</t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Эл. почта или телефон"- ввести  testingalex@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testingalex@gmail.com успешно  ввелось в текстовое поле </t>
+  </si>
+  <si>
+    <t>Заполнить элемент для ввода пароля "Пароль" -ввести Testing123456</t>
+  </si>
+  <si>
+    <t>Testing123456  было успешно введено в элемент для ввода пароля "Пароль" ,  введеные данные отображаються  в виде символов черного круга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кликнуть на кнопу "Войти" </t>
+  </si>
+  <si>
+    <t>Открылась страница Личные данные. Вход прошел успешно</t>
+  </si>
+  <si>
+    <t>Выйти из системы нажав на кнопку "Выйти"</t>
+  </si>
+  <si>
+    <t>При вводе данных и нажатии клавишы "Войти", пользователь успешно вошел в систему</t>
+  </si>
+  <si>
+    <t>Test Data 3-2</t>
+  </si>
+  <si>
+    <t>Test Data 3-1</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь вошел в личный кабинет
+</t>
+  </si>
+  <si>
+    <t>TC#3.2 -R-1- Вход зарегестрированого пользователя через  номер телефона</t>
+  </si>
+  <si>
+    <t>1)  Открыть браузер 
+2) Создать нового пользователя  c следующими данными:
+Имя: Константин
+email: testingalex@gmail.com
+Номер телефона: 0972792547</t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Эл. почта или телефон"- ввести  0972792547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0972792547 успешно  ввелось в текстовое поле </t>
+  </si>
+  <si>
+    <t>Матрица трассировки</t>
   </si>
   <si>
     <r>
@@ -350,7 +604,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Project name:</t>
+      <t>Имя проекта:</t>
     </r>
     <r>
       <rPr>
@@ -364,240 +618,13 @@
     </r>
   </si>
   <si>
-    <t>Требования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заголовки тест кейсов       </t>
-  </si>
-  <si>
-    <t>1. Создание новых пользователей</t>
-  </si>
-  <si>
-    <t>2. Регистрация новых пользователей через социальные сети</t>
-  </si>
-  <si>
-    <t>3. Вход зарегистрированым полезователем</t>
-  </si>
-  <si>
-    <t>4. Выход из системы</t>
-  </si>
-  <si>
-    <t>1-1.1</t>
-  </si>
-  <si>
-    <t>1-1.2</t>
-  </si>
-  <si>
-    <t>1-1.3</t>
-  </si>
-  <si>
-    <t>1-1.4</t>
-  </si>
-  <si>
-    <t>1-1.5</t>
-  </si>
-  <si>
-    <t>1-2.1</t>
-  </si>
-  <si>
-    <t>1-3.1</t>
-  </si>
-  <si>
-    <t>1-3.2</t>
-  </si>
-  <si>
-    <t>1-3.3</t>
-  </si>
-  <si>
-    <t>1-4.1</t>
-  </si>
-  <si>
-    <t>1-4.2</t>
-  </si>
-  <si>
-    <t>1-4.3</t>
-  </si>
-  <si>
-    <t>1-4.4</t>
-  </si>
-  <si>
-    <t>При заполнении обезательных полей и нажатии на кнопку "Зарегистрироваться"  я вижу созданого пользователя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Открыть браузер </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открыть страницу https://my.rozetka.com.ua/signup/ </t>
-  </si>
-  <si>
-    <t>Открылась страница регистрации</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>Имя в текстовом поле "Ваше Имя":</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>Александр ввелось в текстовое поле</t>
-  </si>
-  <si>
-    <t>Заполнить текстовое поле "Ваше имя" - ввести Александр</t>
-  </si>
-  <si>
-    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести overlord124@gmail.com</t>
-  </si>
-  <si>
-    <t>overlord124@gmail.com</t>
-  </si>
-  <si>
-    <t>overlord124@gmail.com ввелось в текстовое поле</t>
-  </si>
-  <si>
-    <t>Имя в текстовом поле "Эл. почта или телефон"</t>
-  </si>
-  <si>
-    <t>Заполнить элемент для вввода пароля "Придумайте пароль" - ввести Test123456</t>
-  </si>
-  <si>
-    <t>Test123456 было успешно введено в элемент для ввода пароля "Придумайте пароль" ,  введеные данные отображаються  в виде символов черного круга</t>
-  </si>
-  <si>
-    <t>Кликуть на кнопку "Зарегестрироваться"</t>
-  </si>
-  <si>
-    <t>Открылась страница "Личные данные"
-Пользователь успешно создан</t>
-  </si>
-  <si>
-    <t>Пароль в элементе для ввода пароля</t>
-  </si>
-  <si>
-    <t>Test123456</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>21.02.19</t>
-  </si>
-  <si>
-    <t>Фото:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Функция: </t>
-  </si>
-  <si>
-    <t>Александр успешно зарегистрировался в систему</t>
-  </si>
-  <si>
-    <t>TC#1.1 -ROP-1- Создание нового пользователя, регистрация через email</t>
-  </si>
-  <si>
-    <t>Тестовые данные</t>
-  </si>
-  <si>
-    <t>Ожидаемый результат</t>
-  </si>
-  <si>
-    <t>Тестовый результат (passed/failed/blocked)</t>
-  </si>
-  <si>
-    <t>TC#1.2 -ROP-1- Создание нового пользователя, регистрация через телефон</t>
-  </si>
-  <si>
-    <t>0972792547</t>
-  </si>
-  <si>
-    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести 0972792547</t>
-  </si>
-  <si>
-    <t>0972792547 успешно ввелось в тектовое плоле</t>
-  </si>
-  <si>
-    <t>Создание нового пользователя, регистрация через телефон</t>
-  </si>
-  <si>
-    <t>Создание нового пользователя, регистрация через email</t>
-  </si>
-  <si>
-    <t>При заполнении полей "Ваше Имя" и  "Эл.почта или телефон", выводиться предупреждающее окно "Необходимо указать пароль"</t>
-  </si>
-  <si>
-    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести testing1@gmail.com</t>
-  </si>
-  <si>
-    <t>testing1@gmail.com   успешно ввелось в тектовое плоле</t>
-  </si>
-  <si>
-    <t>Вывелось предупреждающее окно "Необходимо указать пароль" 
-Валидация прошла успешно</t>
-  </si>
-  <si>
-    <t>Создания нового пользователя с уже сущесвующим email</t>
-  </si>
-  <si>
-    <t>TC#1.3 -ROP-1- Создания нового пользователя без заполнения элемента для ввода пароля</t>
-  </si>
-  <si>
-    <t>Создания нового пользователя без заполнения элемента для ввода пароля</t>
-  </si>
-  <si>
-    <t>testing1@gmail.com</t>
-  </si>
-  <si>
-    <t>Вывелось предупреждающее окно "Необходимо указать пароль"</t>
-  </si>
-  <si>
-    <t>Шаги воспроизведения</t>
-  </si>
-  <si>
-    <t>Открылось предупреждающее окно "Пользователь с логином overlord124@gmail.com уже зарегистрирован. Забыли пароль?"
-Валидация прошла успешно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывелось предупреждающее окно "Пользователь с логином overlord124@gmail.com уже зарегистрирован. Забыли пароль?"
-</t>
-  </si>
-  <si>
-    <t>Создания нового пользователя с невалидным паролем</t>
-  </si>
-  <si>
-    <t>TC#1.4 -ROP-1- Создания нового пользователя с уже сущесвующим email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При попытке создания пользователя с уже существующим email выводиться предупреждающее окно </t>
-  </si>
-  <si>
-    <t>TC#1.5 -ROP-1- Создания нового пользователя с невалидным паролем</t>
-  </si>
-  <si>
-    <t>Заполнить текстовое поле "Ваше имя" - ввести Иван</t>
-  </si>
-  <si>
-    <t>Иван ввелось в текстовое поле</t>
-  </si>
-  <si>
-    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести testingvano@gmail.com</t>
-  </si>
-  <si>
-    <t>testingvano@gmail.com ввелось в текстовое поле</t>
-  </si>
-  <si>
-    <t>Заполнить элемент для вввода пароля "Придумайте пароль" - ввести 12345</t>
-  </si>
-  <si>
-    <t>12345 было успешно введено в элемент для ввода пароля "Придумайте пароль" ,  введеные данные отображаються  в виде символов черного круга</t>
-  </si>
-  <si>
-    <t>Открылось предупреждающее окно "Пароль должен быть не менее 6 символов, содержать цифры и заглавные буквы"
-Валидация прошла успешно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При попытке создания пользователя с невалидным паролем выводиться предупреждающее окно </t>
+    <t xml:space="preserve">Предусловие: </t>
+  </si>
+  <si>
+    <t>Постусловие:</t>
+  </si>
+  <si>
+    <t>Описание Тест кейса:</t>
   </si>
 </sst>
 </file>
@@ -695,18 +722,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20.149999999999999"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -742,7 +770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1110,12 +1138,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1182,12 +1236,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1197,10 +1245,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,13 +1324,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1581,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D83"/>
+  <dimension ref="B1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,152 +1688,134 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="26" t="s">
-        <v>99</v>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>100</v>
+      <c r="B10" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>150</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>149</v>
+        <v>11</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>157</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>155</v>
+        <v>13</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
-        <v>101</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="56" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
-        <v>102</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="57"/>
       <c r="C16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="39"/>
       <c r="C18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>12</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -2055,34 +2101,14 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2091,15 +2117,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E168"/>
+  <dimension ref="B1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="60.140625" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
     <col min="5" max="5" width="47.7109375" customWidth="1"/>
@@ -2107,54 +2133,54 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+        <v>139</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+        <v>141</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="B7" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
@@ -2164,16 +2190,16 @@
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,13 +2207,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2195,10 +2221,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -2207,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>128</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -2219,10 +2245,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="E13" s="14"/>
     </row>
@@ -2231,63 +2257,63 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="E14" s="10"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
+        <v>139</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+        <v>141</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
+      <c r="B22" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
@@ -2297,16 +2323,16 @@
     </row>
     <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2314,10 +2340,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="E25" s="10"/>
     </row>
@@ -2326,10 +2352,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -2338,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -2350,10 +2376,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="E28" s="14"/>
     </row>
@@ -2362,63 +2388,63 @@
         <v>5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+        <v>139</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+        <v>141</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
     </row>
     <row r="37" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
+      <c r="B37" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
@@ -2428,16 +2454,16 @@
     </row>
     <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2445,10 +2471,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="E40" s="10"/>
     </row>
@@ -2457,10 +2483,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E41" s="11"/>
     </row>
@@ -2469,10 +2495,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>153</v>
+        <v>51</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="E42" s="10"/>
     </row>
@@ -2481,10 +2507,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="E43" s="14"/>
     </row>
@@ -2496,54 +2522,54 @@
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
+      <c r="B47" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
     </row>
     <row r="48" spans="2:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="45"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+        <v>139</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+        <v>141</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="50"/>
+      <c r="E50" s="51"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="51"/>
     </row>
     <row r="52" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="53"/>
+      <c r="B52" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
@@ -2553,16 +2579,16 @@
     </row>
     <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2570,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="E55" s="10"/>
     </row>
@@ -2582,10 +2608,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E56" s="11"/>
     </row>
@@ -2594,10 +2620,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>128</v>
+        <v>27</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="E57" s="10"/>
     </row>
@@ -2606,10 +2632,10 @@
         <v>4</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="E58" s="14"/>
     </row>
@@ -2618,63 +2644,63 @@
         <v>5</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="E59" s="10"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
+      <c r="B62" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="42"/>
     </row>
     <row r="63" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="44"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="45"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="47"/>
+        <v>139</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="47"/>
+      <c r="E64" s="48"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="50"/>
+        <v>141</v>
+      </c>
+      <c r="C65" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="50"/>
+      <c r="E65" s="51"/>
     </row>
     <row r="66" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="C66" s="49"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="51"/>
     </row>
     <row r="67" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="53"/>
+      <c r="B67" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="54"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="20"/>
@@ -2684,16 +2710,16 @@
     </row>
     <row r="69" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2701,10 +2727,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="E70" s="10"/>
     </row>
@@ -2713,10 +2739,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="E71" s="11"/>
     </row>
@@ -2725,10 +2751,10 @@
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>170</v>
+        <v>65</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="E72" s="10"/>
     </row>
@@ -2737,10 +2763,10 @@
         <v>4</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="E73" s="14"/>
     </row>
@@ -2749,63 +2775,63 @@
         <v>5</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="76" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="41"/>
+      <c r="B77" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="42"/>
     </row>
     <row r="78" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="42"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="44"/>
-    </row>
-    <row r="79" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
+    </row>
+    <row r="79" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
+        <v>139</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="47"/>
+      <c r="E79" s="48"/>
     </row>
     <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="50"/>
+        <v>141</v>
+      </c>
+      <c r="C80" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="50"/>
+      <c r="E80" s="51"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="C81" s="49"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="51"/>
     </row>
     <row r="82" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="53"/>
+      <c r="B82" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="54"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="20"/>
@@ -2815,16 +2841,16 @@
     </row>
     <row r="84" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2832,46 +2858,46 @@
         <v>1</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E85" s="10"/>
     </row>
-    <row r="86" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
         <v>2</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E86" s="11"/>
     </row>
-    <row r="87" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
         <v>3</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>18</v>
+      <c r="C87" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="E87" s="10"/>
     </row>
-    <row r="88" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <v>4</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E88" s="14"/>
     </row>
@@ -2880,795 +2906,488 @@
         <v>5</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E89" s="10"/>
     </row>
-    <row r="90" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="7">
-        <v>6</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41"/>
-    </row>
-    <row r="94" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="42"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="44"/>
+    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="42"/>
+    </row>
+    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="43"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="45"/>
+    </row>
+    <row r="94" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="48"/>
     </row>
     <row r="95" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95" s="46"/>
-      <c r="E95" s="47"/>
+      <c r="B95" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="50"/>
+      <c r="E95" s="51"/>
     </row>
     <row r="96" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="49"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="51"/>
+    </row>
+    <row r="97" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="54"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="22"/>
+    </row>
+    <row r="99" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B100" s="6">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="7">
         <v>2</v>
       </c>
-      <c r="C96" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="50"/>
-    </row>
-    <row r="97" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="4" t="s">
+      <c r="C101" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B102" s="6">
         <v>3</v>
       </c>
-      <c r="C97" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="50"/>
-    </row>
-    <row r="98" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="51" t="s">
+      <c r="C102" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B103" s="12">
         <v>4</v>
       </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="53"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="22"/>
-    </row>
-    <row r="100" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="23" t="s">
+      <c r="C103" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B104" s="6">
         <v>5</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C104" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B105" s="7">
         <v>6</v>
       </c>
-      <c r="D100" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B101" s="6">
-        <v>1</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="10"/>
-    </row>
-    <row r="102" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="7">
-        <v>2</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="6">
-        <v>3</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E103" s="10"/>
-    </row>
-    <row r="104" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B104" s="12">
-        <v>4</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" s="14"/>
-    </row>
-    <row r="105" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B105" s="6">
-        <v>5</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E105" s="10"/>
-    </row>
-    <row r="106" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="7">
-        <v>6</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E106" s="11"/>
-    </row>
-    <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="41"/>
-    </row>
-    <row r="110" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="42"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="44"/>
+      <c r="C105" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="11"/>
+    </row>
+    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="42"/>
+    </row>
+    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="43"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="45"/>
+    </row>
+    <row r="110" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="47"/>
+      <c r="E110" s="48"/>
     </row>
     <row r="111" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D111" s="46"/>
-      <c r="E111" s="47"/>
+      <c r="B111" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" s="50"/>
+      <c r="E111" s="51"/>
     </row>
     <row r="112" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112" s="50"/>
+      <c r="E112" s="51"/>
+    </row>
+    <row r="113" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B113" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="54"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="22"/>
+    </row>
+    <row r="115" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B115" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" s="6">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="7">
         <v>2</v>
       </c>
-      <c r="C112" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D112" s="49"/>
-      <c r="E112" s="50"/>
-    </row>
-    <row r="113" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
+      <c r="C117" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117" s="11"/>
+    </row>
+    <row r="118" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="6">
         <v>3</v>
       </c>
-      <c r="C113" s="48"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="50"/>
-    </row>
-    <row r="114" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B114" s="51" t="s">
+      <c r="C118" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B119" s="12">
         <v>4</v>
       </c>
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="53"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="20"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="22"/>
-    </row>
-    <row r="116" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B116" s="23" t="s">
+      <c r="C119" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E119" s="14"/>
+    </row>
+    <row r="120" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B120" s="6">
         <v>5</v>
       </c>
-      <c r="C116" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="6">
+      <c r="C120" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E120" s="10"/>
+    </row>
+    <row r="122" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="42"/>
+    </row>
+    <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="43"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="44"/>
+      <c r="E124" s="45"/>
+    </row>
+    <row r="125" spans="2:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" s="47"/>
+      <c r="E125" s="48"/>
+    </row>
+    <row r="126" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="50"/>
+      <c r="E126" s="51"/>
+    </row>
+    <row r="127" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="49"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="51"/>
+    </row>
+    <row r="128" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="54"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="20"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="22"/>
+    </row>
+    <row r="130" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B131" s="6">
         <v>1</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="10"/>
-    </row>
-    <row r="118" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B118" s="7">
+      <c r="C131" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" s="7">
         <v>2</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E118" s="11"/>
-    </row>
-    <row r="119" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B119" s="6">
-        <v>3</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E119" s="10"/>
-    </row>
-    <row r="120" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B120" s="12">
-        <v>4</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="14"/>
-    </row>
-    <row r="121" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B121" s="6">
-        <v>5</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E121" s="10"/>
-    </row>
-    <row r="122" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B122" s="7">
-        <v>6</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E122" s="11"/>
-    </row>
-    <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="41"/>
-    </row>
-    <row r="126" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="42"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="44"/>
-    </row>
-    <row r="127" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D127" s="46"/>
-      <c r="E127" s="47"/>
-    </row>
-    <row r="128" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D128" s="49"/>
-      <c r="E128" s="50"/>
-    </row>
-    <row r="129" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="48"/>
-      <c r="D129" s="49"/>
-      <c r="E129" s="50"/>
-    </row>
-    <row r="130" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="53"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="20"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="22"/>
-    </row>
-    <row r="132" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="23" t="s">
-        <v>8</v>
-      </c>
+      <c r="C132" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E133" s="10"/>
     </row>
-    <row r="134" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B134" s="7">
-        <v>2</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E134" s="11"/>
+    <row r="134" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B134" s="12">
+        <v>4</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E134" s="14"/>
     </row>
     <row r="135" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
-        <v>3</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="E135" s="10"/>
     </row>
-    <row r="136" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B136" s="12">
-        <v>4</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E136" s="14"/>
-    </row>
-    <row r="137" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B137" s="6">
-        <v>5</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E137" s="10"/>
-    </row>
-    <row r="138" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B138" s="7">
-        <v>6</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E138" s="11"/>
-    </row>
-    <row r="140" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C141" s="40"/>
-      <c r="D141" s="40"/>
-      <c r="E141" s="41"/>
-    </row>
-    <row r="142" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="42"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="44"/>
-    </row>
-    <row r="143" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B143" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D143" s="46"/>
-      <c r="E143" s="47"/>
-    </row>
-    <row r="144" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D144" s="49"/>
-      <c r="E144" s="50"/>
-    </row>
-    <row r="145" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B145" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D145" s="49"/>
-      <c r="E145" s="50"/>
-    </row>
-    <row r="146" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B146" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="52"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="53"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="20"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="22"/>
-    </row>
-    <row r="148" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B148" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B149" s="6">
-        <v>1</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="10"/>
-    </row>
-    <row r="150" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B150" s="7">
-        <v>2</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E150" s="11"/>
-    </row>
-    <row r="151" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B151" s="6">
-        <v>3</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E151" s="10"/>
-    </row>
-    <row r="152" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B152" s="12">
-        <v>4</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D152" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E152" s="14"/>
-    </row>
-    <row r="153" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B153" s="6">
-        <v>5</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E153" s="10"/>
-    </row>
-    <row r="154" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="12">
-        <v>6</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E154" s="14"/>
-    </row>
-    <row r="155" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" s="6">
-        <v>7</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E155" s="10"/>
-    </row>
-    <row r="156" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B156" s="7">
-        <v>8</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E156" s="11"/>
-    </row>
-    <row r="158" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C159" s="40"/>
-      <c r="D159" s="40"/>
-      <c r="E159" s="41"/>
-    </row>
-    <row r="160" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="42"/>
-      <c r="C160" s="43"/>
-      <c r="D160" s="43"/>
-      <c r="E160" s="44"/>
-    </row>
-    <row r="161" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D161" s="46"/>
-      <c r="E161" s="47"/>
-    </row>
-    <row r="162" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B162" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D162" s="49"/>
-      <c r="E162" s="50"/>
-    </row>
-    <row r="163" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B163" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="48"/>
-      <c r="D163" s="49"/>
-      <c r="E163" s="50"/>
-    </row>
-    <row r="164" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="52"/>
-      <c r="D164" s="52"/>
-      <c r="E164" s="53"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="20"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="22"/>
-    </row>
-    <row r="166" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B167" s="12">
-        <v>1</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E167" s="14"/>
-    </row>
-    <row r="168" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B168" s="6">
-        <v>2</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D168" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E168" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="45">
+    <mergeCell ref="B123:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B108:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B92:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B77:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B62:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B47:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B47:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B62:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B77:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B93:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B109:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B125:E126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B141:E142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="B159:E160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="B164:E164"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1"/>
     <hyperlink ref="D42" r:id="rId2"/>
     <hyperlink ref="D57" r:id="rId3"/>
     <hyperlink ref="D72" r:id="rId4"/>
+    <hyperlink ref="D87" r:id="rId5"/>
+    <hyperlink ref="D102" r:id="rId6"/>
+    <hyperlink ref="D118" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P69"/>
+  <dimension ref="B4:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3678,395 +3397,471 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="55"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>127</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="54"/>
+      <c r="B14" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="55"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>146</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="54"/>
+      <c r="B24" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="55"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C27" s="17"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="54"/>
+      <c r="B34" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="55"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>127</v>
+        <v>30</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>162</v>
+      <c r="B38" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="54"/>
+      <c r="B45" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="55"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="C48" s="58">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="55"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="54"/>
+      <c r="C56" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="17" t="s">
+      <c r="C60" s="17"/>
+    </row>
+    <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="55"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="31" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="17" t="s">
+      <c r="C67" s="59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="17"/>
+    </row>
+    <row r="73" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="55"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="31" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="17" t="s">
+      <c r="C77" s="59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="17"/>
+    </row>
+    <row r="83" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="55"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P66" s="24"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="C87" s="59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B59:C59"/>
+  <mergeCells count="9">
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B24:C24"/>
@@ -4077,8 +3872,12 @@
     <hyperlink ref="C6" r:id="rId1"/>
     <hyperlink ref="C26" r:id="rId2"/>
     <hyperlink ref="C36" r:id="rId3"/>
+    <hyperlink ref="C47" r:id="rId4"/>
+    <hyperlink ref="C56" r:id="rId5" display="testingvano@gmail.com"/>
+    <hyperlink ref="C65" r:id="rId6" display="testingvano@gmail.com"/>
+    <hyperlink ref="C75" r:id="rId7" display="testingvano@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/scenario1_rozetka.xlsx
+++ b/scenario1_rozetka.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23955" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23955" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TM-1" sheetId="1" r:id="rId1"/>
@@ -160,15 +160,6 @@
   </si>
   <si>
     <t>Тестовый результат (passed/failed/blocked)</t>
-  </si>
-  <si>
-    <t>0972792547</t>
-  </si>
-  <si>
-    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести 0972792547</t>
-  </si>
-  <si>
-    <t>0972792547 успешно ввелось в тектовое плоле</t>
   </si>
   <si>
     <t>Создание нового пользователя, регистрация через телефон</t>
@@ -579,19 +570,6 @@
     <t>TC#3.2 -R-1- Вход зарегестрированого пользователя через  номер телефона</t>
   </si>
   <si>
-    <t>1)  Открыть браузер 
-2) Создать нового пользователя  c следующими данными:
-Имя: Константин
-email: testingalex@gmail.com
-Номер телефона: 0972792547</t>
-  </si>
-  <si>
-    <t>Заполнить текстовое поле "Эл. почта или телефон"- ввести  0972792547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0972792547 успешно  ввелось в текстовое поле </t>
-  </si>
-  <si>
     <t>Матрица трассировки</t>
   </si>
   <si>
@@ -625,6 +603,86 @@
   </si>
   <si>
     <t>Описание Тест кейса:</t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Эл. почта или телефон" - ввести 0971234567</t>
+  </si>
+  <si>
+    <t>0971234567 успешно ввелось в тектовое плоле</t>
+  </si>
+  <si>
+    <t>Заполнить текстовое поле "Эл. почта или телефон"- ввести  0971234567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0971234567 успешно  ввелось в текстовое поле </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1)  Открыть браузер 
+2) Создать нового пользователя  c следующими данными:
+Имя: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Константин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+email: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testingalex@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Номер телефона:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0971234567</t>
+    </r>
+  </si>
+  <si>
+    <t>0971234567</t>
   </si>
 </sst>
 </file>
@@ -1258,6 +1316,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,6 +1344,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1323,22 +1397,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1688,18 +1746,18 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
@@ -1711,90 +1769,90 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="42" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
-        <v>113</v>
+      <c r="B17" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -2119,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126:E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,54 +2191,54 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
     </row>
     <row r="6" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
@@ -2193,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>43</v>
@@ -2266,54 +2324,54 @@
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="B17" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
@@ -2326,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>43</v>
@@ -2364,10 +2422,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -2397,54 +2455,54 @@
     </row>
     <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
@@ -2457,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>43</v>
@@ -2495,10 +2553,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E42" s="10"/>
     </row>
@@ -2510,7 +2568,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E43" s="14"/>
     </row>
@@ -2522,54 +2580,54 @@
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
+      <c r="B47" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
     </row>
     <row r="48" spans="2:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="45"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
     </row>
     <row r="52" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="54"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
@@ -2582,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>43</v>
@@ -2647,60 +2705,60 @@
         <v>33</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E59" s="10"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
+      <c r="B62" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
     </row>
     <row r="63" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="45"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="51"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="48"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
     </row>
     <row r="66" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
     </row>
     <row r="67" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="54"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="60"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="20"/>
@@ -2713,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>43</v>
@@ -2739,10 +2797,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E71" s="11"/>
     </row>
@@ -2751,10 +2809,10 @@
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E72" s="10"/>
     </row>
@@ -2763,10 +2821,10 @@
         <v>4</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E73" s="14"/>
     </row>
@@ -2778,60 +2836,60 @@
         <v>33</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="76" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42"/>
+      <c r="B77" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="48"/>
     </row>
     <row r="78" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="43"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="51"/>
     </row>
     <row r="79" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="48"/>
+        <v>133</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="53"/>
+      <c r="E79" s="54"/>
     </row>
     <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="C80" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="56"/>
+      <c r="E80" s="57"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C81" s="55"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="57"/>
     </row>
     <row r="82" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="54"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="60"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="20"/>
@@ -2844,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>43</v>
@@ -2870,10 +2928,10 @@
         <v>2</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E86" s="11"/>
     </row>
@@ -2882,10 +2940,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E87" s="10"/>
     </row>
@@ -2894,10 +2952,10 @@
         <v>4</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E88" s="14"/>
     </row>
@@ -2906,63 +2964,63 @@
         <v>5</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E89" s="10"/>
     </row>
     <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="42"/>
+      <c r="B92" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="48"/>
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="43"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="51"/>
     </row>
     <row r="94" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="48"/>
+        <v>133</v>
+      </c>
+      <c r="C94" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="53"/>
+      <c r="E94" s="54"/>
     </row>
     <row r="95" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="C95" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="56"/>
+      <c r="E95" s="57"/>
     </row>
     <row r="96" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="57"/>
     </row>
     <row r="97" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="54"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="60"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="20"/>
@@ -2975,13 +3033,13 @@
         <v>0</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D99" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -3001,10 +3059,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E101" s="11"/>
     </row>
@@ -3013,10 +3071,10 @@
         <v>3</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E102" s="10"/>
     </row>
@@ -3025,10 +3083,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E103" s="14"/>
     </row>
@@ -3037,10 +3095,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E104" s="10"/>
     </row>
@@ -3049,65 +3107,65 @@
         <v>6</v>
       </c>
       <c r="C105" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="E105" s="11"/>
     </row>
     <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="42"/>
+      <c r="B108" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="48"/>
     </row>
     <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="45"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="51"/>
     </row>
     <row r="110" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C110" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D110" s="47"/>
-      <c r="E110" s="48"/>
+        <v>133</v>
+      </c>
+      <c r="C110" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="53"/>
+      <c r="E110" s="54"/>
     </row>
     <row r="111" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C111" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D111" s="50"/>
-      <c r="E111" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111" s="56"/>
+      <c r="E111" s="57"/>
     </row>
     <row r="112" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C112" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D112" s="50"/>
-      <c r="E112" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="56"/>
+      <c r="E112" s="57"/>
     </row>
     <row r="113" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B113" s="52" t="s">
+      <c r="B113" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="54"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="60"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="20"/>
@@ -3120,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D115" s="23" t="s">
         <v>43</v>
@@ -3146,10 +3204,10 @@
         <v>2</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E117" s="11"/>
     </row>
@@ -3158,10 +3216,10 @@
         <v>3</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E118" s="10"/>
     </row>
@@ -3170,10 +3228,10 @@
         <v>4</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E119" s="14"/>
     </row>
@@ -3182,63 +3240,63 @@
         <v>5</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E120" s="10"/>
     </row>
     <row r="122" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="42"/>
+      <c r="B123" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="48"/>
     </row>
     <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="43"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="45"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="51"/>
     </row>
     <row r="125" spans="2:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C125" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D125" s="47"/>
-      <c r="E125" s="48"/>
+        <v>133</v>
+      </c>
+      <c r="C125" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="53"/>
+      <c r="E125" s="54"/>
     </row>
     <row r="126" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C126" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" s="50"/>
-      <c r="E126" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="C126" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D126" s="56"/>
+      <c r="E126" s="57"/>
     </row>
     <row r="127" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C127" s="49"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C127" s="55"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="57"/>
     </row>
     <row r="128" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="52" t="s">
+      <c r="B128" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C128" s="53"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="54"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="59"/>
+      <c r="E128" s="60"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="20"/>
@@ -3251,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D130" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -3277,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E132" s="11"/>
     </row>
@@ -3289,10 +3347,10 @@
         <v>3</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E133" s="10"/>
     </row>
@@ -3301,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E134" s="14"/>
     </row>
@@ -3313,60 +3371,60 @@
         <v>5</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E135" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B47:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B62:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B77:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B92:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B108:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="B113:E113"/>
     <mergeCell ref="B123:E124"/>
     <mergeCell ref="C125:E125"/>
     <mergeCell ref="C126:E126"/>
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B108:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B92:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B77:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B62:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B47:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1"/>
@@ -3386,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,10 +3455,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="55"/>
+      <c r="B4" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -3451,10 +3509,10 @@
       </c>
     </row>
     <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="55"/>
+      <c r="B14" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
@@ -3469,7 +3527,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3563,10 @@
       </c>
     </row>
     <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="55"/>
+      <c r="B24" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
@@ -3523,7 +3581,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3537,7 +3595,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3557,10 +3615,10 @@
       </c>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="55"/>
+      <c r="B34" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
@@ -3591,7 +3649,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3611,17 +3669,17 @@
       </c>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="55"/>
+      <c r="B45" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="61"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3629,14 +3687,14 @@
         <v>30</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="58">
+      <c r="C48" s="32">
         <v>12345</v>
       </c>
     </row>
@@ -3645,7 +3703,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -3665,33 +3723,33 @@
       </c>
     </row>
     <row r="55" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="55"/>
+      <c r="B55" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="61"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="58" t="s">
-        <v>93</v>
+      <c r="C57" s="32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="59" t="s">
-        <v>94</v>
+      <c r="C58" s="33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -3709,33 +3767,33 @@
       <c r="C60" s="17"/>
     </row>
     <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="55"/>
+      <c r="B64" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="61"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="58" t="s">
-        <v>93</v>
+      <c r="C66" s="32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="59" t="s">
-        <v>112</v>
+      <c r="C67" s="33" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -3753,17 +3811,17 @@
       <c r="C69" s="17"/>
     </row>
     <row r="73" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="55"/>
+      <c r="B73" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="61"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -3771,23 +3829,23 @@
         <v>30</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="58" t="s">
-        <v>93</v>
+      <c r="C76" s="32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C77" s="59" t="s">
-        <v>132</v>
+      <c r="C77" s="33" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -3805,41 +3863,41 @@
       <c r="C79" s="17"/>
     </row>
     <row r="83" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="55"/>
+      <c r="B83" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="60" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="61" t="s">
-        <v>45</v>
+      <c r="C85" s="35" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="58" t="s">
-        <v>93</v>
+      <c r="C86" s="32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="59" t="s">
-        <v>132</v>
+      <c r="C87" s="33" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
